--- a/formato caso de prueba.xlsx
+++ b/formato caso de prueba.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Microsoft Windows 10.DESKTOP-8RBDR0M\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE2A5C2-3C3D-4846-B9FE-4F451BCDEC11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44BB71-E79F-471C-98FD-15293444A49B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="cp1" sheetId="5" r:id="rId1"/>
+    <sheet name="cp2" sheetId="4" r:id="rId2"/>
+    <sheet name="cp3" sheetId="2" r:id="rId3"/>
+    <sheet name="cp4" sheetId="6" r:id="rId4"/>
+    <sheet name="prueba junit 5" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja2!$K$2,Hoja2!$B$1:$J$50</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
   <si>
     <t>Paso</t>
   </si>
@@ -49,12 +51,6 @@
     <t xml:space="preserve">CASOS DE PRUEBA </t>
   </si>
   <si>
-    <t>NOMBRE DE PROYECTO</t>
-  </si>
-  <si>
-    <t>dd/mm/aaaa</t>
-  </si>
-  <si>
     <t>PRUEBA DISEÑADA POR:</t>
   </si>
   <si>
@@ -73,7 +69,7 @@
     <t>PRUEBA EJECUTADA POR:</t>
   </si>
   <si>
-    <t>(BAJO, MEDIO, ALTO)</t>
+    <t>TITUL DE LA PRUEBA:</t>
   </si>
   <si>
     <t>Wilson Jahyr Gonzale Rojas, Jhon michael Ortiz</t>
@@ -88,10 +84,67 @@
     <t>DEPENDENCIA:</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMBRE DE LA PERSONA QUE EJECUTO EL CASO DE PRUEBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE DEL MODULO A PROBAR </t>
+    <t xml:space="preserve">EJECUCION PRUEBA </t>
+  </si>
+  <si>
+    <t>PASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATO PRUEBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULTADO ACTUAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTA </t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero Consecutivo Del Paso Que Se Realiza Para Ejecutar La Prueba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se Registra Los Datos Que Ingresan  Para Llenar Checkbox  En Los Formularios De Las Paginas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado Que Se Espera Al Ejecutar El Paso De La Prueba </t>
+  </si>
+  <si>
+    <t>Es El Mismo Resultado Esperado , exceptuando Que Se Ejecute Un Error</t>
+  </si>
+  <si>
+    <t>Se Ingresa La Palabra "Pasa" O "Falla" Dependiendo Del Resultado Actual</t>
+  </si>
+  <si>
+    <t>Se Ingresa Las Novedades Del Que Se Dieron En El Paso</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREACION DE USUARIOS </t>
+  </si>
+  <si>
+    <t>Wilson Jahyr Gonzale Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo de Pruebas </t>
+  </si>
+  <si>
+    <t>Modificacion de Usuario</t>
+  </si>
+  <si>
+    <t>Modificacion de usuario</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
   </si>
   <si>
     <r>
@@ -101,7 +154,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -111,58 +164,43 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">DESCRIPCION PRUEBA A REALIZAR </t>
+      <t xml:space="preserve">Se realizao la prueba del funcionamiento adecuado del modulo </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">EJECUCION PRUEBA </t>
-  </si>
-  <si>
-    <t>PASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATO PRUEBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESULTADO ACTUAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTADO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTA </t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero Consecutivo Del Paso Que Se Realiza Para Ejecutar La Prueba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se Registra Los Datos Que Ingresan  Para Llenar Checkbox  En Los Formularios De Las Paginas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado Que Se Espera Al Ejecutar El Paso De La Prueba </t>
-  </si>
-  <si>
-    <t>Se Ingresa La Palabra "Pasa" O "Falla" Dependiendo Del Resultado Actual</t>
-  </si>
-  <si>
-    <t>Se Ingresa Las Novedades Del Que Se Dieron En El Paso</t>
-  </si>
-  <si>
-    <t>IDENTIFICACION</t>
-  </si>
-  <si>
-    <t>TITULO DE LA PRUEBA:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE DEL PROCESO QUE SE VA A PROBAR </t>
+    <r>
+      <t xml:space="preserve">CONDICIONES PREVIAS: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Estar logeado, deben haber usuarios registrado en el sistema</t>
+    </r>
+  </si>
+  <si>
+    <t>Consulta Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta Usuarios </t>
+  </si>
+  <si>
+    <t>TIENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASO DE PRUEBA </t>
+  </si>
+  <si>
+    <t>CP 1</t>
   </si>
   <si>
     <r>
@@ -170,27 +208,66 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">CONDICIONES PARA REALIAZR LA PRUEBA </t>
+      <t>Ser administrador o usuario del aplicativo</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DEPENDECIA A LA CUAL PERTENECE LA PERSONA QUE REALIZA LA PRUEBA </t>
-  </si>
-  <si>
-    <t>Es El Mismo Resultado Esperado , Exceptuando Que Se Ejecute Un Error</t>
+    <t>CP 2</t>
+  </si>
+  <si>
+    <r>
+      <t>CONDICIONES PREVIAS: E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l usuario debe de estar consignado en la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>CP 3</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONDICIONES PREVIAS:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No aplipla para este caso de prueba</t>
+    </r>
+  </si>
+  <si>
+    <t>CP 4</t>
+  </si>
+  <si>
+    <t>TITULO DE LA PRUEBA:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,12 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF666666"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -221,30 +292,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,17 +308,24 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -723,85 +786,114 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -809,94 +901,64 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -904,22 +966,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,6 +987,16 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1272,633 +1335,1953 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="2.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="40.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="14">
+        <v>43972</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="71" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="75">
+        <v>43971</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="82">
+        <v>43978</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
+        <v>5</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
+        <v>6</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
         <v>7</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>9</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18">
+        <v>10</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18">
+        <v>11</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18">
+        <v>12</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="76">
-        <v>43971</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="2:10" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="64" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="24">
         <v>14</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="33">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="33">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="33">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="33">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="33">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="33">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="33">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="33">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="33">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="33">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="33">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="33">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="36">
-        <v>14</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="9"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="21"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="C14:I16"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="2.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="40.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="14">
+        <v>43972</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="75">
+        <v>43971</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="82">
+        <v>43978</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
+        <v>5</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
+        <v>6</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
+        <v>7</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>9</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18">
+        <v>10</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18">
+        <v>11</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18">
+        <v>12</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18">
+        <v>13</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="24">
+        <v>14</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="C14:I16"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="2.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="40.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="14">
+        <v>43972</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="75">
+        <v>43971</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="82">
+        <v>43978</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
+        <v>5</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
+        <v>6</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
+        <v>7</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>9</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18">
+        <v>10</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18">
+        <v>11</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18">
+        <v>12</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18">
+        <v>13</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="24">
+        <v>14</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="21"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="21"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="21"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
     </row>
     <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1927,8 +3310,1339 @@
     <mergeCell ref="C17:I18"/>
     <mergeCell ref="C21:I21"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="2.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="40.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="14">
+        <v>43972</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="75">
+        <v>43971</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="82">
+        <v>43978</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
+        <v>5</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
+        <v>6</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
+        <v>7</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>9</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18">
+        <v>10</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18">
+        <v>11</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18">
+        <v>12</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18">
+        <v>13</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="24">
+        <v>14</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="C14:I16"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="2.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="40.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="14">
+        <v>43972</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="75">
+        <v>43971</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="82">
+        <v>43978</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
+        <v>5</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
+        <v>6</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
+        <v>7</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>9</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18">
+        <v>10</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18">
+        <v>11</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18">
+        <v>12</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18">
+        <v>13</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="24">
+        <v>14</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="C14:I16"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>